--- a/Book/项目负责表.xlsx
+++ b/Book/项目负责表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14320" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -234,8 +234,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -259,7 +263,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="21">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -268,6 +272,8 @@
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -276,6 +282,8 @@
     <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -607,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -698,11 +706,11 @@
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>30</v>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -726,11 +734,11 @@
       <c r="B11">
         <v>5</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>26</v>
+      <c r="D11" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7">
